--- a/UI/excel/贷款起期-下次还款日.xlsx
+++ b/UI/excel/贷款起期-下次还款日.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="90" windowWidth="23655" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="关联内容" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -365,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,34 +377,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>